--- a/datos/datos_desarrollo/Temporada_productos.xlsx
+++ b/datos/datos_desarrollo/Temporada_productos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mgep-my.sharepoint.com/personal/unai_torrecilla_alumni_mondragon_edu/Documents/Datathon-Datamasters/datos/datos_desarrollo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mgep-my.sharepoint.com/personal/unai_torrecilla_alumni_mondragon_edu/Documents/TheDataMasters/datos/datos_desarrollo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:9_{86C60A1A-DBDA-490C-A708-FA23F3D4BD54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE7A7C6E-5DBF-4E69-91F6-31CE93A0AB40}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:9_{86C60A1A-DBDA-490C-A708-FA23F3D4BD54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2E63BE94-AEBC-435A-876F-B3FADACB130B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD671A9D-18E2-4EFA-84DE-3AD7D2D3B1D6}"/>
   </bookViews>
@@ -75,60 +75,12 @@
     <t>Temporada</t>
   </si>
   <si>
-    <t>NOVIEMBRE-ABRIL</t>
-  </si>
-  <si>
-    <t>AGOSTO-OCTUBRE</t>
-  </si>
-  <si>
-    <t>OCTUBRE-JUNIO</t>
-  </si>
-  <si>
     <t>JUNIO</t>
   </si>
   <si>
-    <t>OCTUBRE-JULIO</t>
-  </si>
-  <si>
-    <t>OCTUBRE-ABRIL</t>
-  </si>
-  <si>
-    <t>JULIO-SEPTIEMBRE</t>
-  </si>
-  <si>
-    <t>SEPTIEMBRE-ABRIL</t>
-  </si>
-  <si>
-    <t>AGOSTO-NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>JUNIO-AGOSTO</t>
-  </si>
-  <si>
-    <t>MARZO-JULIO</t>
-  </si>
-  <si>
-    <t>NOVIEMBRE-MARZO</t>
-  </si>
-  <si>
-    <t>ABRIL-NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>ABRIL-JUNIO</t>
-  </si>
-  <si>
     <t>MAYO</t>
   </si>
   <si>
-    <t>DICIEMBRE-ABRIL</t>
-  </si>
-  <si>
-    <t>NOVIEMBRE-JUNIO</t>
-  </si>
-  <si>
-    <t>JULIO-OCTUBRE</t>
-  </si>
-  <si>
     <t>BERENJENA (ECO)</t>
   </si>
   <si>
@@ -279,39 +231,6 @@
     <t>Zanahorias</t>
   </si>
   <si>
-    <t>MAYO-AGOSTO</t>
-  </si>
-  <si>
-    <t>SEPTIEMBRE-DICIEMBRE</t>
-  </si>
-  <si>
-    <t>OCTUBRE-MARZO</t>
-  </si>
-  <si>
-    <t>ABRIL-AGOSTO</t>
-  </si>
-  <si>
-    <t>OCTUBRE-ENERO</t>
-  </si>
-  <si>
-    <t>MAYO-SEPTIEMBRE</t>
-  </si>
-  <si>
-    <t>MARZO-DICIEMBRE</t>
-  </si>
-  <si>
-    <t>ENERO-DICIEMBRE</t>
-  </si>
-  <si>
-    <t>DICIEMBRE-FEBRERO</t>
-  </si>
-  <si>
-    <t>OCTUBRE-MAYO</t>
-  </si>
-  <si>
-    <t>JULIO-DICIEMBRE</t>
-  </si>
-  <si>
     <t>producto</t>
   </si>
   <si>
@@ -319,6 +238,87 @@
   </si>
   <si>
     <t>Sandia</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE - ABRIL</t>
+  </si>
+  <si>
+    <t>ABRIL - NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>MAYO - AGOSTO</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE - MARZO</t>
+  </si>
+  <si>
+    <t>JUNIO - AGOSTO</t>
+  </si>
+  <si>
+    <t>JULIO - OCTUBRE</t>
+  </si>
+  <si>
+    <t>OCTUBRE - ABRIL</t>
+  </si>
+  <si>
+    <t>JULIO - SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>ABRIL - AGOSTO</t>
+  </si>
+  <si>
+    <t>SEPTIEMBRE - DICIEMBRE</t>
+  </si>
+  <si>
+    <t>SEPTIEMBRE - ABRIL</t>
+  </si>
+  <si>
+    <t>ABRIL - JUNIO</t>
+  </si>
+  <si>
+    <t>MARZO - JULIO</t>
+  </si>
+  <si>
+    <t>OCTUBRE - JULIO</t>
+  </si>
+  <si>
+    <t>OCTUBRE - MARZO</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE - JUNIO</t>
+  </si>
+  <si>
+    <t>AGOSTO - NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>OCTUBRE - ENERO</t>
+  </si>
+  <si>
+    <t>MAYO - SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>MARZO - DICIEMBRE</t>
+  </si>
+  <si>
+    <t>ENERO - DICIEMBRE</t>
+  </si>
+  <si>
+    <t>OCTUBRE - JUNIO</t>
+  </si>
+  <si>
+    <t>DICIEMBRE - FEBRERO</t>
+  </si>
+  <si>
+    <t>DICIEMBRE - ABRIL</t>
+  </si>
+  <si>
+    <t>OCTUBRE - MAYO</t>
+  </si>
+  <si>
+    <t>AGOSTO - OCTUBRE</t>
+  </si>
+  <si>
+    <t>JULIO - DICIEMBRE</t>
   </si>
 </sst>
 </file>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8113882C-5C9B-4687-A8FD-843EA89D211E}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -711,12 +711,12 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -725,12 +725,12 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -739,12 +739,12 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -753,12 +753,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -781,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -809,12 +809,12 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -823,12 +823,12 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -837,12 +837,12 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -851,12 +851,12 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -865,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,12 +879,12 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -893,12 +893,12 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -907,12 +907,12 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -921,12 +921,12 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -935,12 +935,12 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -949,12 +949,12 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -963,12 +963,12 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -977,12 +977,12 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1005,12 +1005,12 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1019,32 +1019,32 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,12 +1067,12 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1081,12 +1081,12 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -1095,12 +1095,12 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>11</v>
@@ -1109,12 +1109,12 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>11</v>
@@ -1123,12 +1123,12 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -1137,12 +1137,12 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1156,12 +1156,12 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -1184,12 +1184,12 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -1198,12 +1198,12 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1296,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,12 +1310,12 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1">
         <v>10</v>
@@ -1338,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1352,12 +1352,12 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -1366,12 +1366,12 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -1394,12 +1394,12 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -1408,12 +1408,12 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1436,12 +1436,12 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -1450,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,12 +1464,12 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -1478,22 +1478,22 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>11</v>
@@ -1502,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
